--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1156.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1156.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.701192460040292</v>
+        <v>1.163240432739258</v>
       </c>
       <c r="B1">
-        <v>1.777505045610572</v>
+        <v>2.421838521957397</v>
       </c>
       <c r="C1">
-        <v>1.920504305018466</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.748295909954715</v>
+        <v>2.376255750656128</v>
       </c>
       <c r="E1">
-        <v>3.023240318887994</v>
+        <v>1.234051942825317</v>
       </c>
     </row>
   </sheetData>
